--- a/curation_pathway.xlsx
+++ b/curation_pathway.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimhan/Desktop/CCI_DK/ccc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BB42A8-AC4B-5849-8375-E37C13D3B71B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010BE637-E231-674D-AEA8-2C0D834D701B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{0E3D00CA-4693-094F-B2E2-ECA7CC990080}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" activeTab="1" xr2:uid="{0E3D00CA-4693-094F-B2E2-ECA7CC990080}"/>
   </bookViews>
   <sheets>
     <sheet name="KEGG_Curation" sheetId="1" r:id="rId1"/>
@@ -9330,7 +9330,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E187"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+    <sheetView zoomScale="75" workbookViewId="0">
       <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
@@ -11994,9 +11994,9 @@
   </sheetPr>
   <dimension ref="A1:F713"/>
   <sheetViews>
-    <sheetView zoomScale="87" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
